--- a/StructureDefinition-be-observationcodeableconcept.xlsx
+++ b/StructureDefinition-be-observationcodeableconcept.xlsx
@@ -1560,10 +1560,10 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>39</v>
@@ -2430,10 +2430,10 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>39</v>
@@ -3300,10 +3300,10 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>39</v>
